--- a/Code/Results/Cases/Case_3_254/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_254/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.13196703292055</v>
+        <v>14.73304615076469</v>
       </c>
       <c r="C2">
-        <v>7.327384482244437</v>
+        <v>9.384971601072655</v>
       </c>
       <c r="D2">
-        <v>5.693008632578678</v>
+        <v>8.407772783563104</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.5351594994712</v>
+        <v>39.42189265518708</v>
       </c>
       <c r="G2">
-        <v>2.129276540475512</v>
+        <v>3.701014111491583</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.45624380396311</v>
+        <v>10.98331999469485</v>
       </c>
       <c r="K2">
-        <v>11.03372770237059</v>
+        <v>10.65598252951231</v>
       </c>
       <c r="L2">
-        <v>7.082985889466756</v>
+        <v>11.31029268606957</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.76058742369236</v>
+        <v>30.2420889190203</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.27646020109666</v>
+        <v>14.5374105967684</v>
       </c>
       <c r="C3">
-        <v>7.330268099235332</v>
+        <v>9.386037594419898</v>
       </c>
       <c r="D3">
-        <v>5.498224158708513</v>
+        <v>8.389504438988906</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.43433361143642</v>
+        <v>39.5148890567641</v>
       </c>
       <c r="G3">
-        <v>2.134434134433806</v>
+        <v>3.702955389642616</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.501919083360925</v>
+        <v>11.00719526617126</v>
       </c>
       <c r="K3">
-        <v>10.38052195517465</v>
+        <v>10.51175743096998</v>
       </c>
       <c r="L3">
-        <v>6.930023680336072</v>
+        <v>11.30705293847524</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.83063013023697</v>
+        <v>30.3335505520159</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.72638716205461</v>
+        <v>14.4185637639663</v>
       </c>
       <c r="C4">
-        <v>7.332936439897489</v>
+        <v>9.387030536253862</v>
       </c>
       <c r="D4">
-        <v>5.377165009321661</v>
+        <v>8.379443085058503</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.39170546602234</v>
+        <v>39.57963713584184</v>
       </c>
       <c r="G4">
-        <v>2.137701206140318</v>
+        <v>3.704211055586122</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.531884584241214</v>
+        <v>11.02283462919437</v>
       </c>
       <c r="K4">
-        <v>9.957988571439742</v>
+        <v>10.42381639291468</v>
       </c>
       <c r="L4">
-        <v>6.837150644031182</v>
+        <v>11.30650613382095</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.88738304767579</v>
+        <v>30.3950376634348</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.49613219345497</v>
+        <v>14.37050911022455</v>
       </c>
       <c r="C5">
-        <v>7.334247033682646</v>
+        <v>9.387520691711245</v>
       </c>
       <c r="D5">
-        <v>5.327537760923938</v>
+        <v>8.375636533948668</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.37904619787436</v>
+        <v>39.60794310725539</v>
       </c>
       <c r="G5">
-        <v>2.139058337956123</v>
+        <v>3.704738820850376</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.544573850199187</v>
+        <v>11.02945467779234</v>
       </c>
       <c r="K5">
-        <v>9.780437840895546</v>
+        <v>10.38817439134601</v>
       </c>
       <c r="L5">
-        <v>6.799609969645927</v>
+        <v>11.30664741545261</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.91384146136021</v>
+        <v>30.42143298267713</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.45753511681256</v>
+        <v>14.36255403228694</v>
       </c>
       <c r="C6">
-        <v>7.334478068200995</v>
+        <v>9.387607259529874</v>
       </c>
       <c r="D6">
-        <v>5.319281636476848</v>
+        <v>8.375022270631563</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.377224654897</v>
+        <v>39.61275921308401</v>
       </c>
       <c r="G6">
-        <v>2.13928526113148</v>
+        <v>3.704827428001353</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.546709631814683</v>
+        <v>11.03056885727623</v>
       </c>
       <c r="K6">
-        <v>9.750632860256642</v>
+        <v>10.3822689992229</v>
       </c>
       <c r="L6">
-        <v>6.793396098887629</v>
+        <v>11.30669290507366</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.91843243705713</v>
+        <v>30.42589672873944</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.72330633564971</v>
+        <v>14.41791408444694</v>
       </c>
       <c r="C7">
-        <v>7.332953214415065</v>
+        <v>9.387036799815197</v>
       </c>
       <c r="D7">
-        <v>5.376496811591529</v>
+        <v>8.379390556289758</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.3915158432472</v>
+        <v>39.58001110716985</v>
       </c>
       <c r="G7">
-        <v>2.137719403820117</v>
+        <v>3.704218108075198</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.532053786577211</v>
+        <v>11.02292290921951</v>
       </c>
       <c r="K7">
-        <v>9.955615730274902</v>
+        <v>10.42333487092989</v>
       </c>
       <c r="L7">
-        <v>6.836643062205234</v>
+        <v>11.30650656316364</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.88772655121079</v>
+        <v>30.39538822083781</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.84220462301409</v>
+        <v>14.66536025250827</v>
       </c>
       <c r="C8">
-        <v>7.328190835476855</v>
+        <v>9.385269171438001</v>
       </c>
       <c r="D8">
-        <v>5.626191805901009</v>
+        <v>8.401235882147489</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.49631324263827</v>
+        <v>39.45236904519739</v>
       </c>
       <c r="G8">
-        <v>2.131034406088236</v>
+        <v>3.701670270625943</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.471590946582892</v>
+        <v>10.99134911523801</v>
       </c>
       <c r="K8">
-        <v>10.81297183608516</v>
+        <v>10.60615055795536</v>
       </c>
       <c r="L8">
-        <v>7.030052761120579</v>
+        <v>11.30887712238935</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.78180874167791</v>
+        <v>30.2725180445248</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.83533725150592</v>
+        <v>15.1582419223926</v>
       </c>
       <c r="C9">
-        <v>7.326100113849749</v>
+        <v>9.384469815530132</v>
       </c>
       <c r="D9">
-        <v>6.101382582571125</v>
+        <v>8.45310408146117</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.86058318306377</v>
+        <v>39.26285063730114</v>
       </c>
       <c r="G9">
-        <v>2.118694439966339</v>
+        <v>3.697177225467671</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.368501589750035</v>
+        <v>10.93718562773574</v>
       </c>
       <c r="K9">
-        <v>12.3232133405086</v>
+        <v>10.96775105111653</v>
       </c>
       <c r="L9">
-        <v>7.415806058616653</v>
+        <v>11.32490537462068</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.68892812980212</v>
+        <v>30.07391110549016</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.23699156551436</v>
+        <v>15.52172718927837</v>
       </c>
       <c r="C10">
-        <v>7.329172297326611</v>
+        <v>9.385484558316005</v>
       </c>
       <c r="D10">
-        <v>6.438314583731353</v>
+        <v>8.496519227679455</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.23249034763931</v>
+        <v>39.16079914003178</v>
       </c>
       <c r="G10">
-        <v>2.110058324296117</v>
+        <v>3.694179791756575</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.302557155566109</v>
+        <v>10.90208752357299</v>
       </c>
       <c r="K10">
-        <v>13.32831654717891</v>
+        <v>11.23296008093223</v>
       </c>
       <c r="L10">
-        <v>7.700845215394484</v>
+        <v>11.3435255410902</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.69875577051294</v>
+        <v>29.95388056379972</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.85897972979081</v>
+        <v>15.68669760747831</v>
       </c>
       <c r="C11">
-        <v>7.33161669244787</v>
+        <v>9.38628901737577</v>
       </c>
       <c r="D11">
-        <v>6.588365813585362</v>
+        <v>8.517376449899736</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.42579831670247</v>
+        <v>39.12247025462251</v>
       </c>
       <c r="G11">
-        <v>2.106213782039528</v>
+        <v>3.692881428128455</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.274773023517483</v>
+        <v>10.88713373065079</v>
       </c>
       <c r="K11">
-        <v>13.76301178785609</v>
+        <v>11.35302551631791</v>
       </c>
       <c r="L11">
-        <v>7.830423357318743</v>
+        <v>11.35346016371427</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.72195942385103</v>
+        <v>29.90491123295025</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.08966293077976</v>
+        <v>15.74905721766733</v>
       </c>
       <c r="C12">
-        <v>7.332697021629652</v>
+        <v>9.38664251079326</v>
       </c>
       <c r="D12">
-        <v>6.644683252068219</v>
+        <v>8.525429586304991</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.50257989719266</v>
+        <v>39.10912137723955</v>
       </c>
       <c r="G12">
-        <v>2.104769245009239</v>
+        <v>3.692399093602158</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.26457860213401</v>
+        <v>10.881616230817</v>
       </c>
       <c r="K12">
-        <v>13.92439826658654</v>
+        <v>11.39836858448287</v>
       </c>
       <c r="L12">
-        <v>7.879445009640334</v>
+        <v>11.35743056726014</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.73358914678148</v>
+        <v>29.8871790217765</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.04019593577823</v>
+        <v>15.73563278103894</v>
       </c>
       <c r="C13">
-        <v>7.332457403827821</v>
+        <v>9.38656421350154</v>
       </c>
       <c r="D13">
-        <v>6.632577267209</v>
+        <v>8.523688377626188</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.48588267990368</v>
+        <v>39.1119444448266</v>
       </c>
       <c r="G13">
-        <v>2.105079861972512</v>
+        <v>3.692502558849941</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.266759475666843</v>
+        <v>10.88279807299463</v>
       </c>
       <c r="K13">
-        <v>13.88978382390773</v>
+        <v>11.38860923855105</v>
       </c>
       <c r="L13">
-        <v>7.868889909729194</v>
+        <v>11.35656623816477</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.73095563781411</v>
+        <v>29.89096186195961</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.87805503839698</v>
+        <v>15.69183051380932</v>
       </c>
       <c r="C14">
-        <v>7.331702446583957</v>
+        <v>9.386317122738189</v>
       </c>
       <c r="D14">
-        <v>6.593009388687316</v>
+        <v>8.518035905867247</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.43204281876319</v>
+        <v>39.12134867045647</v>
       </c>
       <c r="G14">
-        <v>2.106094717140249</v>
+        <v>3.692841559498823</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.273927721442292</v>
+        <v>10.8866768954497</v>
       </c>
       <c r="K14">
-        <v>13.77635363117438</v>
+        <v>11.35675860842258</v>
       </c>
       <c r="L14">
-        <v>7.834457519889831</v>
+        <v>11.35378264791958</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.72285836847256</v>
+        <v>29.90343612378866</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.77810918803148</v>
+        <v>15.6649842464752</v>
       </c>
       <c r="C15">
-        <v>7.331260287608915</v>
+        <v>9.386172122770597</v>
       </c>
       <c r="D15">
-        <v>6.56870622427871</v>
+        <v>8.514593653602965</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.39953377218935</v>
+        <v>39.12726084077345</v>
       </c>
       <c r="G15">
-        <v>2.106717793785891</v>
+        <v>3.693050420561322</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.278361303598332</v>
+        <v>10.8890716801213</v>
       </c>
       <c r="K15">
-        <v>13.7064552073481</v>
+        <v>11.33723198655801</v>
       </c>
       <c r="L15">
-        <v>7.813359635842102</v>
+        <v>11.3521046886929</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.71827326238366</v>
+        <v>29.91118267846388</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.19566122720896</v>
+        <v>15.51093346846181</v>
       </c>
       <c r="C16">
-        <v>7.329033963255613</v>
+        <v>9.385438846509309</v>
       </c>
       <c r="D16">
-        <v>6.428439964230168</v>
+        <v>8.495178081125554</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.22035228636753</v>
+        <v>39.16346704034272</v>
       </c>
       <c r="G16">
-        <v>2.11031120019437</v>
+        <v>3.694265950620415</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.304418174044003</v>
+        <v>10.90308512733934</v>
       </c>
       <c r="K16">
-        <v>13.29945610607175</v>
+        <v>11.22509843330523</v>
       </c>
       <c r="L16">
-        <v>7.692372221449192</v>
+        <v>11.34290557092703</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.69762902342746</v>
+        <v>29.95719429715954</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.82964626279821</v>
+        <v>15.41629018126615</v>
       </c>
       <c r="C17">
-        <v>7.327939161099915</v>
+        <v>9.385076504905829</v>
       </c>
       <c r="D17">
-        <v>6.341535405979524</v>
+        <v>8.483547904637094</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.11669003111216</v>
+        <v>39.18775276910865</v>
       </c>
       <c r="G17">
-        <v>2.112536630307182</v>
+        <v>3.695028301434873</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.320976116757033</v>
+        <v>10.91194095076637</v>
       </c>
       <c r="K17">
-        <v>13.04401461074754</v>
+        <v>11.15613102494093</v>
       </c>
       <c r="L17">
-        <v>7.618102601152929</v>
+        <v>11.33763572440703</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.68986795530777</v>
+        <v>29.98686472120495</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.61590756920964</v>
+        <v>15.36182129716611</v>
       </c>
       <c r="C18">
-        <v>7.327407725913744</v>
+        <v>9.384900392347564</v>
       </c>
       <c r="D18">
-        <v>6.291249067079943</v>
+        <v>8.476963041863513</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.05933080601125</v>
+        <v>39.20248314093994</v>
       </c>
       <c r="G18">
-        <v>2.11382460153492</v>
+        <v>3.695472923598869</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.33070768402739</v>
+        <v>10.91712991334691</v>
       </c>
       <c r="K18">
-        <v>12.89496926801923</v>
+        <v>11.11641055945433</v>
       </c>
       <c r="L18">
-        <v>7.575378287433801</v>
+        <v>11.33474260530549</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.68715817699976</v>
+        <v>30.00446050706187</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.54298513394417</v>
+        <v>15.34337521759615</v>
       </c>
       <c r="C19">
-        <v>7.32724454707447</v>
+        <v>9.384846324007972</v>
       </c>
       <c r="D19">
-        <v>6.274172593345146</v>
+        <v>8.474751597539763</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.04029542917332</v>
+        <v>39.20760139388511</v>
       </c>
       <c r="G19">
-        <v>2.11426207707724</v>
+        <v>3.695624520656756</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.334038084054361</v>
+        <v>10.91890319234838</v>
       </c>
       <c r="K19">
-        <v>12.844140179429</v>
+        <v>11.102954152704</v>
       </c>
       <c r="L19">
-        <v>7.560912564567802</v>
+        <v>11.33378680332884</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.68653746130453</v>
+        <v>30.01050914743382</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.86894166812917</v>
+        <v>15.42636890464821</v>
       </c>
       <c r="C20">
-        <v>7.328045505439825</v>
+        <v>9.385111737372064</v>
       </c>
       <c r="D20">
-        <v>6.350818024255214</v>
+        <v>8.484775171220438</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.12748986103187</v>
+        <v>39.18508865053511</v>
       </c>
       <c r="G20">
-        <v>2.11229891086956</v>
+        <v>3.694946512947098</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.319191922460313</v>
+        <v>10.91098837030188</v>
       </c>
       <c r="K20">
-        <v>13.07142632534073</v>
+        <v>11.16347842162326</v>
       </c>
       <c r="L20">
-        <v>7.626009648425335</v>
+        <v>11.33818244585868</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.6905115084414</v>
+        <v>29.98365137595829</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.925810906852</v>
+        <v>15.70469975781747</v>
       </c>
       <c r="C21">
-        <v>7.331919962829188</v>
+        <v>9.38638837668187</v>
       </c>
       <c r="D21">
-        <v>6.604645397025408</v>
+        <v>8.519692003360227</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.44775887361292</v>
+        <v>39.11855478221261</v>
       </c>
       <c r="G21">
-        <v>2.105796329166504</v>
+        <v>3.692741734005355</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.27181329322934</v>
+        <v>10.88553365454</v>
       </c>
       <c r="K21">
-        <v>13.8097581420247</v>
+        <v>11.36611756239364</v>
       </c>
       <c r="L21">
-        <v>7.844572673272444</v>
+        <v>11.35459461851148</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.72515837558092</v>
+        <v>29.89975009868594</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.58829409698417</v>
+        <v>15.88593250949117</v>
       </c>
       <c r="C22">
-        <v>7.335355965859544</v>
+        <v>9.387507336251174</v>
       </c>
       <c r="D22">
-        <v>6.767585730280048</v>
+        <v>8.543413280335201</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.67798814508601</v>
+        <v>39.08186453454498</v>
       </c>
       <c r="G22">
-        <v>2.10161202660019</v>
+        <v>3.691355130935524</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.242758057763497</v>
+        <v>10.86974353688519</v>
       </c>
       <c r="K22">
-        <v>14.27352527478914</v>
+        <v>11.49781886674213</v>
       </c>
       <c r="L22">
-        <v>7.987130085153965</v>
+        <v>11.3665344069359</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.76444387708801</v>
+        <v>29.84964587366019</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.23727857976395</v>
+        <v>15.78928489878637</v>
       </c>
       <c r="C23">
-        <v>7.333437946180727</v>
+        <v>9.386884230672132</v>
       </c>
       <c r="D23">
-        <v>6.680903209340324</v>
+        <v>8.530671798990991</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.55316149779896</v>
+        <v>39.10082483056429</v>
       </c>
       <c r="G23">
-        <v>2.103839544869438</v>
+        <v>3.692090229324637</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.258087696104699</v>
+        <v>10.87809374770056</v>
       </c>
       <c r="K23">
-        <v>14.02771496640788</v>
+        <v>11.42760747105744</v>
       </c>
       <c r="L23">
-        <v>7.911081134882101</v>
+        <v>11.36005163476707</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.74190394556185</v>
+        <v>29.87595420322515</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.8511865353287</v>
+        <v>15.42181248765331</v>
       </c>
       <c r="C24">
-        <v>7.327997122284178</v>
+        <v>9.385095708435717</v>
       </c>
       <c r="D24">
-        <v>6.346622357798329</v>
+        <v>8.484220007587357</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.1226002967973</v>
+        <v>39.18629070579399</v>
       </c>
       <c r="G24">
-        <v>2.112406357163022</v>
+        <v>3.694983469780692</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.31999789641869</v>
+        <v>10.91141872778278</v>
       </c>
       <c r="K24">
-        <v>13.05904030745575</v>
+        <v>11.1601568791458</v>
       </c>
       <c r="L24">
-        <v>7.622434949831951</v>
+        <v>11.3379348474826</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.69021511175128</v>
+        <v>29.98510245401103</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.31815224937343</v>
+        <v>15.02442855324919</v>
       </c>
       <c r="C25">
-        <v>7.325871073127986</v>
+        <v>9.384403002746392</v>
       </c>
       <c r="D25">
-        <v>5.974752839291506</v>
+        <v>8.438125235978216</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26.74424396470932</v>
+        <v>39.30759806970661</v>
       </c>
       <c r="G25">
-        <v>2.121954261078363</v>
+        <v>3.698339167523001</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.394697816147383</v>
+        <v>10.95101147347354</v>
       </c>
       <c r="K25">
-        <v>11.93301913666614</v>
+        <v>10.86984133600865</v>
       </c>
       <c r="L25">
-        <v>7.311003493613131</v>
+        <v>11.31936014537849</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.70093908857811</v>
+        <v>30.12309879538133</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_254/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_254/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.73304615076469</v>
+        <v>14.13196703292052</v>
       </c>
       <c r="C2">
-        <v>9.384971601072655</v>
+        <v>7.327384482244302</v>
       </c>
       <c r="D2">
-        <v>8.407772783563104</v>
+        <v>5.693008632578564</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.42189265518708</v>
+        <v>26.53515949947093</v>
       </c>
       <c r="G2">
-        <v>3.701014111491583</v>
+        <v>2.12927654047511</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.98331999469485</v>
+        <v>6.456243803963084</v>
       </c>
       <c r="K2">
-        <v>10.65598252951231</v>
+        <v>11.0337277023706</v>
       </c>
       <c r="L2">
-        <v>11.31029268606957</v>
+        <v>7.082985889466712</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.2420889190203</v>
+        <v>19.7605874236922</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.5374105967684</v>
+        <v>13.27646020109666</v>
       </c>
       <c r="C3">
-        <v>9.386037594419898</v>
+        <v>7.330268099235601</v>
       </c>
       <c r="D3">
-        <v>8.389504438988906</v>
+        <v>5.498224158708473</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39.5148890567641</v>
+        <v>26.43433361143628</v>
       </c>
       <c r="G3">
-        <v>3.702955389642616</v>
+        <v>2.134434134433806</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.00719526617126</v>
+        <v>6.50191908336096</v>
       </c>
       <c r="K3">
-        <v>10.51175743096998</v>
+        <v>10.38052195517469</v>
       </c>
       <c r="L3">
-        <v>11.30705293847524</v>
+        <v>6.930023680335995</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>30.3335505520159</v>
+        <v>19.83063013023686</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.4185637639663</v>
+        <v>12.72638716205464</v>
       </c>
       <c r="C4">
-        <v>9.387030536253862</v>
+        <v>7.332936439897758</v>
       </c>
       <c r="D4">
-        <v>8.379443085058503</v>
+        <v>5.377165009321605</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>39.57963713584184</v>
+        <v>26.39170546602216</v>
       </c>
       <c r="G4">
-        <v>3.704211055586122</v>
+        <v>2.137701206140853</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.02283462919437</v>
+        <v>6.531884584241151</v>
       </c>
       <c r="K4">
-        <v>10.42381639291468</v>
+        <v>9.957988571439724</v>
       </c>
       <c r="L4">
-        <v>11.30650613382095</v>
+        <v>6.837150644031118</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>30.3950376634348</v>
+        <v>19.88738304767561</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.37050911022455</v>
+        <v>12.49613219345496</v>
       </c>
       <c r="C5">
-        <v>9.387520691711245</v>
+        <v>7.334247033682918</v>
       </c>
       <c r="D5">
-        <v>8.375636533948668</v>
+        <v>5.327537760923813</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.60794310725539</v>
+        <v>26.37904619787414</v>
       </c>
       <c r="G5">
-        <v>3.704738820850376</v>
+        <v>2.139058337956389</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.02945467779234</v>
+        <v>6.544573850199216</v>
       </c>
       <c r="K5">
-        <v>10.38817439134601</v>
+        <v>9.780437840895564</v>
       </c>
       <c r="L5">
-        <v>11.30664741545261</v>
+        <v>6.799609969645855</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.42143298267713</v>
+        <v>19.91384146136013</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.36255403228694</v>
+        <v>12.45753511681255</v>
       </c>
       <c r="C6">
-        <v>9.387607259529874</v>
+        <v>7.334478068200738</v>
       </c>
       <c r="D6">
-        <v>8.375022270631563</v>
+        <v>5.319281636476767</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.61275921308401</v>
+        <v>26.37722465489694</v>
       </c>
       <c r="G6">
-        <v>3.704827428001353</v>
+        <v>2.139285261131747</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.03056885727623</v>
+        <v>6.546709631814619</v>
       </c>
       <c r="K6">
-        <v>10.3822689992229</v>
+        <v>9.750632860256601</v>
       </c>
       <c r="L6">
-        <v>11.30669290507366</v>
+        <v>6.793396098887603</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>30.42589672873944</v>
+        <v>19.91843243705713</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.41791408444694</v>
+        <v>12.72330633564969</v>
       </c>
       <c r="C7">
-        <v>9.387036799815197</v>
+        <v>7.332953214414793</v>
       </c>
       <c r="D7">
-        <v>8.379390556289758</v>
+        <v>5.37649681159148</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>39.58001110716985</v>
+        <v>26.39151584324711</v>
       </c>
       <c r="G7">
-        <v>3.704218108075198</v>
+        <v>2.13771940381985</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.02292290921951</v>
+        <v>6.532053786577312</v>
       </c>
       <c r="K7">
-        <v>10.42333487092989</v>
+        <v>9.955615730274909</v>
       </c>
       <c r="L7">
-        <v>11.30650656316364</v>
+        <v>6.836643062205348</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>30.39538822083781</v>
+        <v>19.88772655121072</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.66536025250827</v>
+        <v>13.84220462301412</v>
       </c>
       <c r="C8">
-        <v>9.385269171438001</v>
+        <v>7.328190835477002</v>
       </c>
       <c r="D8">
-        <v>8.401235882147489</v>
+        <v>5.62619180590106</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.45236904519739</v>
+        <v>26.49631324263816</v>
       </c>
       <c r="G8">
-        <v>3.701670270625943</v>
+        <v>2.131034406088235</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.99134911523801</v>
+        <v>6.471590946582893</v>
       </c>
       <c r="K8">
-        <v>10.60615055795536</v>
+        <v>10.81297183608516</v>
       </c>
       <c r="L8">
-        <v>11.30887712238935</v>
+        <v>7.030052761120547</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.2725180445248</v>
+        <v>19.78180874167777</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.1582419223926</v>
+        <v>15.8353372515059</v>
       </c>
       <c r="C9">
-        <v>9.384469815530132</v>
+        <v>7.326100113849876</v>
       </c>
       <c r="D9">
-        <v>8.45310408146117</v>
+        <v>6.101382582571144</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>39.26285063730114</v>
+        <v>26.86058318306371</v>
       </c>
       <c r="G9">
-        <v>3.697177225467671</v>
+        <v>2.118694439966473</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.93718562773574</v>
+        <v>6.368501589750002</v>
       </c>
       <c r="K9">
-        <v>10.96775105111653</v>
+        <v>12.32321334050861</v>
       </c>
       <c r="L9">
-        <v>11.32490537462068</v>
+        <v>7.415806058616608</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.07391110549016</v>
+        <v>19.68892812980207</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.52172718927837</v>
+        <v>17.23699156551437</v>
       </c>
       <c r="C10">
-        <v>9.385484558316005</v>
+        <v>7.329172297326733</v>
       </c>
       <c r="D10">
-        <v>8.496519227679455</v>
+        <v>6.438314583731337</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>39.16079914003178</v>
+        <v>27.23249034763928</v>
       </c>
       <c r="G10">
-        <v>3.694179791756575</v>
+        <v>2.110058324295983</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.90208752357299</v>
+        <v>6.302557155566135</v>
       </c>
       <c r="K10">
-        <v>11.23296008093223</v>
+        <v>13.32831654717895</v>
       </c>
       <c r="L10">
-        <v>11.3435255410902</v>
+        <v>7.700845215394471</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>29.95388056379972</v>
+        <v>19.69875577051289</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.68669760747831</v>
+        <v>17.85897972979081</v>
       </c>
       <c r="C11">
-        <v>9.38628901737577</v>
+        <v>7.331616692447744</v>
       </c>
       <c r="D11">
-        <v>8.517376449899736</v>
+        <v>6.588365813585334</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>39.12247025462251</v>
+        <v>27.42579831670239</v>
       </c>
       <c r="G11">
-        <v>3.692881428128455</v>
+        <v>2.106213782039262</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.88713373065079</v>
+        <v>6.274773023517505</v>
       </c>
       <c r="K11">
-        <v>11.35302551631791</v>
+        <v>13.76301178785605</v>
       </c>
       <c r="L11">
-        <v>11.35346016371427</v>
+        <v>7.83042335731878</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>29.90491123295025</v>
+        <v>19.72195942385097</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.74905721766733</v>
+        <v>18.0896629307798</v>
       </c>
       <c r="C12">
-        <v>9.38664251079326</v>
+        <v>7.332697021629382</v>
       </c>
       <c r="D12">
-        <v>8.525429586304991</v>
+        <v>6.644683252068163</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>39.10912137723955</v>
+        <v>27.50257989719258</v>
       </c>
       <c r="G12">
-        <v>3.692399093602158</v>
+        <v>2.104769245009105</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.881616230817</v>
+        <v>6.264578602134005</v>
       </c>
       <c r="K12">
-        <v>11.39836858448287</v>
+        <v>13.92439826658655</v>
       </c>
       <c r="L12">
-        <v>11.35743056726014</v>
+        <v>7.879445009640341</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>29.8871790217765</v>
+        <v>19.73358914678143</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.73563278103894</v>
+        <v>18.0401959357783</v>
       </c>
       <c r="C13">
-        <v>9.38656421350154</v>
+        <v>7.33245740382731</v>
       </c>
       <c r="D13">
-        <v>8.523688377626188</v>
+        <v>6.632577267209038</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>39.1119444448266</v>
+        <v>27.48588267990352</v>
       </c>
       <c r="G13">
-        <v>3.692502558849941</v>
+        <v>2.105079861972513</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.88279807299463</v>
+        <v>6.266759475666871</v>
       </c>
       <c r="K13">
-        <v>11.38860923855105</v>
+        <v>13.88978382390778</v>
       </c>
       <c r="L13">
-        <v>11.35656623816477</v>
+        <v>7.868889909729207</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>29.89096186195961</v>
+        <v>19.73095563781396</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.69183051380932</v>
+        <v>17.87805503839704</v>
       </c>
       <c r="C14">
-        <v>9.386317122738189</v>
+        <v>7.331702446584083</v>
       </c>
       <c r="D14">
-        <v>8.518035905867247</v>
+        <v>6.593009388687292</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>39.12134867045647</v>
+        <v>27.43204281876298</v>
       </c>
       <c r="G14">
-        <v>3.692841559498823</v>
+        <v>2.106094717140247</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.8866768954497</v>
+        <v>6.273927721442352</v>
       </c>
       <c r="K14">
-        <v>11.35675860842258</v>
+        <v>13.77635363117443</v>
       </c>
       <c r="L14">
-        <v>11.35378264791958</v>
+        <v>7.834457519889836</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>29.90343612378866</v>
+        <v>19.72285836847237</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.6649842464752</v>
+        <v>17.77810918803145</v>
       </c>
       <c r="C15">
-        <v>9.386172122770597</v>
+        <v>7.331260287609181</v>
       </c>
       <c r="D15">
-        <v>8.514593653602965</v>
+        <v>6.56870622427881</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>39.12726084077345</v>
+        <v>27.39953377218933</v>
       </c>
       <c r="G15">
-        <v>3.693050420561322</v>
+        <v>2.106717793785891</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.8890716801213</v>
+        <v>6.278361303598334</v>
       </c>
       <c r="K15">
-        <v>11.33723198655801</v>
+        <v>13.70645520734811</v>
       </c>
       <c r="L15">
-        <v>11.3521046886929</v>
+        <v>7.813359635842128</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>29.91118267846388</v>
+        <v>19.71827326238358</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.51093346846181</v>
+        <v>17.19566122720896</v>
       </c>
       <c r="C16">
-        <v>9.385438846509309</v>
+        <v>7.329033963255487</v>
       </c>
       <c r="D16">
-        <v>8.495178081125554</v>
+        <v>6.428439964230108</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>39.16346704034272</v>
+        <v>27.22035228636745</v>
       </c>
       <c r="G16">
-        <v>3.694265950620415</v>
+        <v>2.110311200194369</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.90308512733934</v>
+        <v>6.304418174043974</v>
       </c>
       <c r="K16">
-        <v>11.22509843330523</v>
+        <v>13.29945610607175</v>
       </c>
       <c r="L16">
-        <v>11.34290557092703</v>
+        <v>7.692372221449164</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>29.95719429715954</v>
+        <v>19.69762902342741</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.41629018126615</v>
+        <v>16.82964626279824</v>
       </c>
       <c r="C17">
-        <v>9.385076504905829</v>
+        <v>7.327939161099782</v>
       </c>
       <c r="D17">
-        <v>8.483547904637094</v>
+        <v>6.341535405979467</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>39.18775276910865</v>
+        <v>27.11669003111203</v>
       </c>
       <c r="G17">
-        <v>3.695028301434873</v>
+        <v>2.112536630307048</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.91194095076637</v>
+        <v>6.320976116757064</v>
       </c>
       <c r="K17">
-        <v>11.15613102494093</v>
+        <v>13.04401461074755</v>
       </c>
       <c r="L17">
-        <v>11.33763572440703</v>
+        <v>7.618102601152889</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>29.98686472120495</v>
+        <v>19.68986795530773</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.36182129716611</v>
+        <v>16.61590756920962</v>
       </c>
       <c r="C18">
-        <v>9.384900392347564</v>
+        <v>7.327407725913742</v>
       </c>
       <c r="D18">
-        <v>8.476963041863513</v>
+        <v>6.291249067079888</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>39.20248314093994</v>
+        <v>27.05933080601131</v>
       </c>
       <c r="G18">
-        <v>3.695472923598869</v>
+        <v>2.113824601535322</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.91712991334691</v>
+        <v>6.330707684027538</v>
       </c>
       <c r="K18">
-        <v>11.11641055945433</v>
+        <v>12.89496926801924</v>
       </c>
       <c r="L18">
-        <v>11.33474260530549</v>
+        <v>7.575378287433812</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>30.00446050706187</v>
+        <v>19.68715817699984</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.34337521759615</v>
+        <v>16.54298513394417</v>
       </c>
       <c r="C19">
-        <v>9.384846324007972</v>
+        <v>7.327244547074732</v>
       </c>
       <c r="D19">
-        <v>8.474751597539763</v>
+        <v>6.274172593345126</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>39.20760139388511</v>
+        <v>27.04029542917339</v>
       </c>
       <c r="G19">
-        <v>3.695624520656756</v>
+        <v>2.114262077077239</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.91890319234838</v>
+        <v>6.334038084054358</v>
       </c>
       <c r="K19">
-        <v>11.102954152704</v>
+        <v>12.84414017942903</v>
       </c>
       <c r="L19">
-        <v>11.33378680332884</v>
+        <v>7.560912564567785</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>30.01050914743382</v>
+        <v>19.68653746130457</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.42636890464821</v>
+        <v>16.86894166812917</v>
       </c>
       <c r="C20">
-        <v>9.385111737372064</v>
+        <v>7.328045505439819</v>
       </c>
       <c r="D20">
-        <v>8.484775171220438</v>
+        <v>6.350818024255128</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>39.18508865053511</v>
+        <v>27.12748986103182</v>
       </c>
       <c r="G20">
-        <v>3.694946512947098</v>
+        <v>2.11229891086916</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.91098837030188</v>
+        <v>6.319191922460343</v>
       </c>
       <c r="K20">
-        <v>11.16347842162326</v>
+        <v>13.07142632534075</v>
       </c>
       <c r="L20">
-        <v>11.33818244585868</v>
+        <v>7.626009648425343</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>29.98365137595829</v>
+        <v>19.6905115084414</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.70469975781747</v>
+        <v>17.92581090685199</v>
       </c>
       <c r="C21">
-        <v>9.38638837668187</v>
+        <v>7.33191996282905</v>
       </c>
       <c r="D21">
-        <v>8.519692003360227</v>
+        <v>6.604645397025358</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>39.11855478221261</v>
+        <v>27.44775887361305</v>
       </c>
       <c r="G21">
-        <v>3.692741734005355</v>
+        <v>2.10579632916637</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.88553365454</v>
+        <v>6.271813293229335</v>
       </c>
       <c r="K21">
-        <v>11.36611756239364</v>
+        <v>13.80975814202461</v>
       </c>
       <c r="L21">
-        <v>11.35459461851148</v>
+        <v>7.844572673272418</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>29.89975009868594</v>
+        <v>19.72515837558111</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.88593250949117</v>
+        <v>18.58829409698418</v>
       </c>
       <c r="C22">
-        <v>9.387507336251174</v>
+        <v>7.335355965859669</v>
       </c>
       <c r="D22">
-        <v>8.543413280335201</v>
+        <v>6.76758573028009</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>39.08186453454498</v>
+        <v>27.67798814508592</v>
       </c>
       <c r="G22">
-        <v>3.691355130935524</v>
+        <v>2.101612026600055</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.86974353688519</v>
+        <v>6.242758057763533</v>
       </c>
       <c r="K22">
-        <v>11.49781886674213</v>
+        <v>14.27352527478919</v>
       </c>
       <c r="L22">
-        <v>11.3665344069359</v>
+        <v>7.987130085153947</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>29.84964587366019</v>
+        <v>19.76444387708794</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.78928489878637</v>
+        <v>18.23727857976395</v>
       </c>
       <c r="C23">
-        <v>9.386884230672132</v>
+        <v>7.333437946180592</v>
       </c>
       <c r="D23">
-        <v>8.530671798990991</v>
+        <v>6.680903209340346</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>39.10082483056429</v>
+        <v>27.55316149779906</v>
       </c>
       <c r="G23">
-        <v>3.692090229324637</v>
+        <v>2.103839544869303</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.87809374770056</v>
+        <v>6.25808769610479</v>
       </c>
       <c r="K23">
-        <v>11.42760747105744</v>
+        <v>14.02771496640785</v>
       </c>
       <c r="L23">
-        <v>11.36005163476707</v>
+        <v>7.911081134882162</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>29.87595420322515</v>
+        <v>19.7419039455619</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.42181248765331</v>
+        <v>16.85118653532869</v>
       </c>
       <c r="C24">
-        <v>9.385095708435717</v>
+        <v>7.327997122284422</v>
       </c>
       <c r="D24">
-        <v>8.484220007587357</v>
+        <v>6.346622357798328</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>39.18629070579399</v>
+        <v>27.12260029679727</v>
       </c>
       <c r="G24">
-        <v>3.694983469780692</v>
+        <v>2.112406357162888</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.91141872778278</v>
+        <v>6.319997896418693</v>
       </c>
       <c r="K24">
-        <v>11.1601568791458</v>
+        <v>13.05904030745578</v>
       </c>
       <c r="L24">
-        <v>11.3379348474826</v>
+        <v>7.622434949831964</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>29.98510245401103</v>
+        <v>19.69021511175122</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.02442855324919</v>
+        <v>15.31815224937341</v>
       </c>
       <c r="C25">
-        <v>9.384403002746392</v>
+        <v>7.325871073128249</v>
       </c>
       <c r="D25">
-        <v>8.438125235978216</v>
+        <v>5.974752839291529</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.30759806970661</v>
+        <v>26.74424396470936</v>
       </c>
       <c r="G25">
-        <v>3.698339167523001</v>
+        <v>2.121954261078497</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.95101147347354</v>
+        <v>6.394697816147383</v>
       </c>
       <c r="K25">
-        <v>10.86984133600865</v>
+        <v>11.93301913666615</v>
       </c>
       <c r="L25">
-        <v>11.31936014537849</v>
+        <v>7.311003493613084</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.12309879538133</v>
+        <v>19.70093908857811</v>
       </c>
     </row>
   </sheetData>
